--- a/exercise-files/dashboard/Practice.xlsx
+++ b/exercise-files/dashboard/Practice.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="15" windowWidth="9135" windowHeight="8265"/>
+    <workbookView xWindow="-30" yWindow="15" windowWidth="9135" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task-dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="task-db2" sheetId="3" r:id="rId2"/>
+    <sheet name="data-table2" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>TaskId</t>
   </si>
@@ -33,6 +34,87 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Task3</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Task4</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Task5</t>
+  </si>
+  <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>Task6</t>
+  </si>
+  <si>
+    <t>Name6</t>
+  </si>
+  <si>
+    <t>Task7</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
+    <t>Task8</t>
+  </si>
+  <si>
+    <t>Name8</t>
+  </si>
+  <si>
+    <t>Task9</t>
+  </si>
+  <si>
+    <t>Name9</t>
+  </si>
+  <si>
+    <t>Task10</t>
+  </si>
+  <si>
+    <t>Name10</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>Inwork</t>
+  </si>
+  <si>
+    <t>Pend</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Plan</t>
   </si>
 </sst>
 </file>
@@ -64,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -87,21 +169,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -563,6 +764,30 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="S3:W13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="S3:W13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="TaskId"/>
+    <tableColumn id="2" name="TaskName"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="4" name="Status"/>
+    <tableColumn id="5" name="Date" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableStatus" displayName="TableStatus" ref="A1:A6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:A6"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Status" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,8 +1080,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,12 +1487,315 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="S3:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="6">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="5" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="6">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="6" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="6">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="7" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="6">
+        <v>43197</v>
+      </c>
+    </row>
+    <row r="8" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="6">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="9" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="6">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="10" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="6">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="11" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="6">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="12" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="6">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="13" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="6">
+        <v>43194</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>